--- a/va_facility_data_2025-02-20/Joseph Maxwell Cleland Atlanta VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Joseph%20Maxwell%20Cleland%20Atlanta%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Joseph Maxwell Cleland Atlanta VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Joseph%20Maxwell%20Cleland%20Atlanta%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R1e1c49abb7b54f7297d64704af6d3607"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rb6c5bc2e2ca14d1aa68bd0e9abdb0b1a"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd2aef562870b4af4be2e50417b1a2c67"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R33a71869b986437a85a6126f0c0afe26"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R812f55ddb9e8426796d5e5d36a8423f2"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc54314b36f3e45c8b2b0152597ecc869"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R2f9dbce7a9294829bda5dac7c3b92b53"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rd422754cbae64998ba4225120719f93e"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R02ffd3822eaf46c2bf6ea29d26aaee29"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R6ac80f9b879146dfbc26015a92c86c19"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R67bdf05ddc8f45debe91bf570ed281c7"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R24b56e85d1a14e5e8953f49ef253ca3c"/>
   </x:sheets>
 </x:workbook>
 </file>
